--- a/medicine/Enfance/Patapoufs_et_Filifers/Patapoufs_et_Filifers.xlsx
+++ b/medicine/Enfance/Patapoufs_et_Filifers/Patapoufs_et_Filifers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Patapoufs et Filifers est un livre pour enfants écrit en 1930 par André Maurois et illustré par Jean Bruller, qui deviendra plus tard l'écrivain Vercors. 
@@ -513,7 +525,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Edmond et Thierry trouvent l'entrée par la Roche Jumelle, où un long escalator descend dans les entrailles de la terre. La région souterraine est illuminée par de gros ballons remplis d'un gaz bleu et éblouissant, qui flottent dans le ciel souterrain.
 Au bas de l'escalator, un quai étroit borde un grand golfe. Edmond et Thierry y sont séparés. Edmond est emmené à Patabourg, la capitale du royaume Patapouf, par le port de Pataport, tandis que Thierry reçoit l'ordre de monter à bord d'un navire en acier partant du port de Filiport pour Filigrad, capitale de la République Filifer.
